--- a/i_codebooks/D5_DU_for_Template_6.xlsx
+++ b/i_codebooks/D5_DU_for_Template_6.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
   <si>
     <t>medatata_name</t>
   </si>
@@ -440,16 +440,48 @@
   <si>
     <t>row_identifier_1 row_identifier_2</t>
   </si>
+  <si>
+    <t>order to list these rows</t>
+  </si>
+  <si>
+    <t>D4_DU_prevalence_of_use_MSdrugs_in_MS_cohort/medication-level_order</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>D4_DU_prevalence_of_use_MSdrugs_in_MS_cohort/CalendarTime-level_order</t>
+  </si>
+  <si>
+    <t>row_identifier_1_order</t>
+  </si>
+  <si>
+    <t>row_identifier_2_order</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -794,101 +826,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -9593,7 +9631,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9658,6 +9696,9 @@
       <c r="D2" s="8" t="s">
         <v>101</v>
       </c>
+      <c r="H2" s="38" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
@@ -9672,6 +9713,9 @@
       <c r="D3" s="8" t="s">
         <v>124</v>
       </c>
+      <c r="H3" s="38" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
@@ -9683,6 +9727,9 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
+      <c r="H4" s="38" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
@@ -9695,6 +9742,9 @@
         <v>25</v>
       </c>
       <c r="D5" s="32"/>
+      <c r="H5" s="40" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
@@ -9707,6 +9757,9 @@
         <v>28</v>
       </c>
       <c r="D6" s="32"/>
+      <c r="H6" s="40" t="s">
+        <v>133</v>
+      </c>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9719,6 +9772,9 @@
       <c r="C7" s="35" t="s">
         <v>28</v>
       </c>
+      <c r="I7" s="38" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
@@ -9730,9 +9786,39 @@
       <c r="C8" s="35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I8" s="38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
